--- a/Excel-Read/Comprobo.xlsx
+++ b/Excel-Read/Comprobo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>URL</t>
   </si>
@@ -673,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,13 +993,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
@@ -1041,11 +1041,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.comprobo.net" tooltip="https://www.comprobo.net"/>
     <hyperlink ref="B2" r:id="rId2" display="testuser@comprobo.net" tooltip="mailto:testuser@comprobo.net"/>
     <hyperlink ref="D2" r:id="rId3" display="testuse@comprobo.net"/>
+    <hyperlink ref="B3" r:id="rId2" display="testuser@comprobo.net" tooltip="mailto:testuser@comprobo.net"/>
+    <hyperlink ref="B4" r:id="rId2" display="testuser@comprobo.net" tooltip="mailto:testuser@comprobo.net"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
